--- a/untargeted/best_labeled_anno.xlsx
+++ b/untargeted/best_labeled_anno.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Will\xcms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Documents\PARAGON\untargeted\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BDFC65-9723-423B-9A35-F6FD05A87700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="best_labeled_anno.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="234">
   <si>
     <t>feature</t>
   </si>
@@ -132,9 +133,6 @@
     <t>FT1756</t>
   </si>
   <si>
-    <t>5-Oxoproline</t>
-  </si>
-  <si>
     <t>FT1780</t>
   </si>
   <si>
@@ -177,12 +175,6 @@
     <t>FT2012</t>
   </si>
   <si>
-    <t>Homarine/Trigonelline</t>
-  </si>
-  <si>
-    <t>Adenine, 15N2</t>
-  </si>
-  <si>
     <t>FT2015</t>
   </si>
   <si>
@@ -357,27 +349,9 @@
     <t>notes</t>
   </si>
   <si>
-    <t>pyrroline?</t>
-  </si>
-  <si>
     <t>formula</t>
   </si>
   <si>
-    <t>C4H6N</t>
-  </si>
-  <si>
-    <t>C4H6NO</t>
-  </si>
-  <si>
-    <t>hydroxypyrroline</t>
-  </si>
-  <si>
-    <t>adduct of FT0857?</t>
-  </si>
-  <si>
-    <t>C4H8NO2</t>
-  </si>
-  <si>
     <t>isocytosine iso</t>
   </si>
   <si>
@@ -402,9 +376,6 @@
     <t>Hypox iso</t>
   </si>
   <si>
-    <t>Confusing - overlap between hypox iso and NMT</t>
-  </si>
-  <si>
     <t>Glutamine C iso</t>
   </si>
   <si>
@@ -423,9 +394,6 @@
     <t>Fully labeled guanine</t>
   </si>
   <si>
-    <t>C iso of upper?</t>
-  </si>
-  <si>
     <t>C7H14NO5?</t>
   </si>
   <si>
@@ -474,9 +442,6 @@
     <t>C10H22NO6</t>
   </si>
   <si>
-    <t>Some weird purine</t>
-  </si>
-  <si>
     <t>N iso of weird purine above</t>
   </si>
   <si>
@@ -496,12 +461,276 @@
   </si>
   <si>
     <t>Shinorine</t>
+  </si>
+  <si>
+    <t>C4H7N</t>
+  </si>
+  <si>
+    <t>C4H7NO</t>
+  </si>
+  <si>
+    <t>C4H7NO2</t>
+  </si>
+  <si>
+    <t>C5H9NO2</t>
+  </si>
+  <si>
+    <t>C3H7NO2</t>
+  </si>
+  <si>
+    <t>in-source fragment of proline</t>
+  </si>
+  <si>
+    <t>in-source fragment of glx</t>
+  </si>
+  <si>
+    <t>GBT frag 15N?</t>
+  </si>
+  <si>
+    <t>homarine iso?</t>
+  </si>
+  <si>
+    <t>C iso of N-penta thing</t>
+  </si>
+  <si>
+    <t>Final name</t>
+  </si>
+  <si>
+    <t>Proline source fragment</t>
+  </si>
+  <si>
+    <t>Glx source fragment</t>
+  </si>
+  <si>
+    <t>Alanine</t>
+  </si>
+  <si>
+    <t>Serine</t>
+  </si>
+  <si>
+    <t>Cytosine 15N1</t>
+  </si>
+  <si>
+    <t>Cytosine 15N2</t>
+  </si>
+  <si>
+    <t>Proline</t>
+  </si>
+  <si>
+    <t>Proline 13C</t>
+  </si>
+  <si>
+    <t>GBT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Glx source fragment 13C</t>
+  </si>
+  <si>
+    <t>Leucine/Isoleucine</t>
+  </si>
+  <si>
+    <t>Asparagine</t>
+  </si>
+  <si>
+    <t>Aspartic acid</t>
+  </si>
+  <si>
+    <t>Hypoxanthine</t>
+  </si>
+  <si>
+    <t>Adenine 15N1</t>
+  </si>
+  <si>
+    <t>Adenine 15N3</t>
+  </si>
+  <si>
+    <t>Adenine 15N2 13C1</t>
+  </si>
+  <si>
+    <t>Adenine 15N4</t>
+  </si>
+  <si>
+    <t>Adenine 15N4 13C1</t>
+  </si>
+  <si>
+    <t>Ectoine 15N</t>
+  </si>
+  <si>
+    <t>Glutamine</t>
+  </si>
+  <si>
+    <t>Glutamate</t>
+  </si>
+  <si>
+    <t>Glutamine 15N</t>
+  </si>
+  <si>
+    <t>Glutamine 13C</t>
+  </si>
+  <si>
+    <t>Glutamate 13C</t>
+  </si>
+  <si>
+    <t>Glutamine 15N1 13C1</t>
+  </si>
+  <si>
+    <t>Methionine</t>
+  </si>
+  <si>
+    <t>Guanine 15N1</t>
+  </si>
+  <si>
+    <t>Guanine 15N2</t>
+  </si>
+  <si>
+    <t>Guanine 15N3</t>
+  </si>
+  <si>
+    <t>Guanine 15N4</t>
+  </si>
+  <si>
+    <t>Guanine 15N4 13C5</t>
+  </si>
+  <si>
+    <t>Threonine</t>
+  </si>
+  <si>
+    <t>Mass matches and RT (kinda) makes sense but still doesn't feel right - too nonpolar. No oxygen isotopes but C and N look great - N clearly grows in during experiment. No other really viable formulas even with expanded set.</t>
+  </si>
+  <si>
+    <t>Cytosine from cytidine</t>
+  </si>
+  <si>
+    <t>Cytosine from cytidine 15N1</t>
+  </si>
+  <si>
+    <t>Cytosine from cytidine 15N2</t>
+  </si>
+  <si>
+    <t>Nicotinamide 15N?</t>
+  </si>
+  <si>
+    <t>Hypoxanthine 15N1</t>
+  </si>
+  <si>
+    <t>Adenine 15N1 13C1</t>
+  </si>
+  <si>
+    <t>Deoxyadenosine</t>
+  </si>
+  <si>
+    <t>Fragment from deoxyadenosine</t>
+  </si>
+  <si>
+    <t>Fragment from deoxyadenosine 15N2</t>
+  </si>
+  <si>
+    <t>Why no 15N1?</t>
+  </si>
+  <si>
+    <t>Glx source fragment (pyroglutamate)</t>
+  </si>
+  <si>
+    <t>Hypoxanthine 15N2</t>
+  </si>
+  <si>
+    <t>Hypoxanthine 15N3</t>
+  </si>
+  <si>
+    <t>Hypoxanthine 15N3 13C1</t>
+  </si>
+  <si>
+    <t>Phenylalanine</t>
+  </si>
+  <si>
+    <t>Phenylalanine 13C</t>
+  </si>
+  <si>
+    <t>Muramic acid 15N?</t>
+  </si>
+  <si>
+    <t>Deoxyadenosine 15N1 13C</t>
+  </si>
+  <si>
+    <t>Deoxyadenosine 15N1</t>
+  </si>
+  <si>
+    <t>Deoxyadenosine 15N2</t>
+  </si>
+  <si>
+    <t>Deoxyadenosine 15N1 13C5</t>
+  </si>
+  <si>
+    <t>Deoxyadenosine 15N2 13C5</t>
+  </si>
+  <si>
+    <t>Adenosine</t>
+  </si>
+  <si>
+    <t>Adenosine 15N</t>
+  </si>
+  <si>
+    <t>Adenosine 15N2</t>
+  </si>
+  <si>
+    <t>Adenosine 15N3</t>
+  </si>
+  <si>
+    <t>Adenosine 15N4</t>
+  </si>
+  <si>
+    <t>Shinorine 13C</t>
+  </si>
+  <si>
+    <t>Pangamic acid?</t>
+  </si>
+  <si>
+    <t>GBT fragment</t>
+  </si>
+  <si>
+    <t>GBT fragment 15N</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Fragment</t>
+  </si>
+  <si>
+    <t>Known</t>
+  </si>
+  <si>
+    <t>Isotope</t>
+  </si>
+  <si>
+    <t>Cytosine 15N2 13C1</t>
+  </si>
+  <si>
+    <t>Novel</t>
+  </si>
+  <si>
+    <t>Adenine 15N3 13C1</t>
+  </si>
+  <si>
+    <t>Adenine 15N3 13C2</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>N15_mzmed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -979,11 +1208,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1304,1361 +1538,2219 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="128" workbookViewId="0">
+      <selection activeCell="A68" sqref="A65:A68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="22" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="5" max="5" width="22" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1" t="s">
-        <v>110</v>
+      <c r="F1" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="G1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="H1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
+        <f>C2-0.997035</f>
+        <v>70.065757761252698</v>
+      </c>
+      <c r="C2">
         <v>71.062792761252695</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>9.0447194999999994</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
+        <f t="shared" ref="B3:B66" si="0">C3-0.997035</f>
+        <v>76.039878693383201</v>
+      </c>
+      <c r="C3">
         <v>77.036913693383198</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>11.525332499999999</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
+        <f t="shared" si="0"/>
+        <v>84.044910717749701</v>
+      </c>
+      <c r="C4">
         <v>85.041945717749698</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>11.144432999999999</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" t="s">
+        <v>153</v>
+      </c>
+      <c r="J4" t="s">
+        <v>159</v>
+      </c>
+      <c r="L4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
+        <f t="shared" si="0"/>
+        <v>84.044930538977908</v>
+      </c>
+      <c r="C5">
         <v>85.041965538977905</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>11.909124</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J5" t="s">
+        <v>159</v>
+      </c>
+      <c r="L5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
+        <f t="shared" si="0"/>
+        <v>90.055415039598202</v>
+      </c>
+      <c r="C6">
         <v>91.052450039598199</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>10.884271</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J6" t="s">
+        <v>160</v>
+      </c>
+      <c r="L6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
+        <f t="shared" si="0"/>
+        <v>102.055314866025</v>
+      </c>
+      <c r="C7">
         <v>103.052349866025</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>11.899252000000001</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" t="s">
+        <v>153</v>
+      </c>
+      <c r="J7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
+        <f t="shared" si="0"/>
+        <v>106.050201274664</v>
+      </c>
+      <c r="C8">
         <v>107.047236274664</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>11.054774</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
+        <f t="shared" si="0"/>
+        <v>112.05080900124601</v>
+      </c>
+      <c r="C9">
         <v>113.04784400124601</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>6.7073406999999996</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
+        <f t="shared" si="0"/>
+        <v>112.05078606904</v>
+      </c>
+      <c r="C10">
         <v>113.04782106904</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>8.1871518999999999</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>193</v>
+      </c>
+      <c r="L10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
+        <f t="shared" si="0"/>
+        <v>113.047811444958</v>
+      </c>
+      <c r="C11">
         <v>114.044846444958</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>6.6957816000000001</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>162</v>
+      </c>
+      <c r="L11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
+        <f t="shared" si="0"/>
+        <v>113.04781126378201</v>
+      </c>
+      <c r="C12">
         <v>114.04484626378201</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>8.1886469500000008</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" t="s">
+        <v>194</v>
+      </c>
+      <c r="L12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
+        <f t="shared" si="0"/>
+        <v>114.04484468184701</v>
+      </c>
+      <c r="C13">
         <v>115.04187968184701</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>6.7003828499999996</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="1"/>
+      <c r="J13" t="s">
+        <v>163</v>
+      </c>
+      <c r="L13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
+        <f t="shared" si="0"/>
+        <v>114.044839046755</v>
+      </c>
+      <c r="C14">
         <v>115.041874046755</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>8.2003800499999997</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
+        <f t="shared" si="0"/>
+        <v>115.048193168811</v>
+      </c>
+      <c r="C15">
         <v>116.04522816881099</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>6.6923467999999904</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" t="s">
+        <v>228</v>
+      </c>
+      <c r="L15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
+        <f t="shared" si="0"/>
+        <v>116.070821405169</v>
+      </c>
+      <c r="C16">
         <v>117.067856405169</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>9.0571541</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="J16" t="s">
+        <v>164</v>
+      </c>
+      <c r="L16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
+        <f t="shared" si="0"/>
+        <v>117.074140541768</v>
+      </c>
+      <c r="C17">
         <v>118.071175541768</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>9.0629305000000002</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J17" t="s">
+        <v>165</v>
+      </c>
+      <c r="L17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
+        <f t="shared" si="0"/>
+        <v>118.08643951384501</v>
+      </c>
+      <c r="C18">
         <v>119.083474513845</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>7.41761815</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="1"/>
+      <c r="J18" t="s">
+        <v>166</v>
+      </c>
+      <c r="L18" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
+        <f t="shared" si="0"/>
+        <v>118.095476442264</v>
+      </c>
+      <c r="C19">
         <v>119.092511442264</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>7.4319009999999999</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J19" t="s">
+        <v>222</v>
+      </c>
+      <c r="L19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
+        <f t="shared" si="0"/>
+        <v>119.09357087274201</v>
+      </c>
+      <c r="C20">
         <v>120.090605872742</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>7.4211039999999997</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" t="s">
+        <v>223</v>
+      </c>
+      <c r="L20" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
+        <f t="shared" si="0"/>
+        <v>120.065709365732</v>
+      </c>
+      <c r="C21">
         <v>121.062744365732</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>10.454020999999999</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="1"/>
+      <c r="J21" t="s">
+        <v>191</v>
+      </c>
+      <c r="L21" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
+        <f t="shared" si="0"/>
+        <v>120.08094713996701</v>
+      </c>
+      <c r="C22">
         <v>121.07798213996701</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>4.5344005999999997</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" t="s">
+        <v>192</v>
+      </c>
+      <c r="J22" t="s">
+        <v>114</v>
+      </c>
+      <c r="L22" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>35</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
+        <f>C23-0.997035*2</f>
+        <v>123.05541012827601</v>
+      </c>
+      <c r="C23">
         <v>125.049480128276</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>2.6950497000000002</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>36</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
+        <f t="shared" si="0"/>
+        <v>130.04993710820199</v>
+      </c>
+      <c r="C24">
         <v>131.046972108202</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>11.271953999999999</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>153</v>
+      </c>
+      <c r="J24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B25" s="4">
+        <f t="shared" si="0"/>
+        <v>131.05328647041</v>
+      </c>
+      <c r="C25">
+        <v>132.05032147041001</v>
+      </c>
+      <c r="D25">
+        <v>11.1838745</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>134</v>
+      </c>
+      <c r="J25" t="s">
+        <v>168</v>
+      </c>
+      <c r="L25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>38</v>
       </c>
-      <c r="B25">
-        <v>132.05032147041001</v>
-      </c>
-      <c r="C25">
-        <v>11.1838745</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B26" s="4">
+        <f t="shared" si="0"/>
+        <v>132.101953696804</v>
+      </c>
+      <c r="C26">
+        <v>133.09898869680401</v>
+      </c>
+      <c r="D26">
+        <v>9.4972907000000006</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B26">
-        <v>133.09898869680401</v>
-      </c>
-      <c r="C26">
-        <v>9.4972907000000006</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="J26" t="s">
+        <v>169</v>
+      </c>
+      <c r="L26" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27" s="4">
+        <f t="shared" si="0"/>
+        <v>133.06069325662398</v>
+      </c>
+      <c r="C27">
+        <v>134.05772825662399</v>
+      </c>
+      <c r="D27">
+        <v>10.910553999999999</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B27">
-        <v>134.05772825662399</v>
-      </c>
-      <c r="C27">
-        <v>10.910553999999999</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="J27" t="s">
+        <v>170</v>
+      </c>
+      <c r="L27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B28" s="4">
+        <f t="shared" si="0"/>
+        <v>134.04483721389599</v>
+      </c>
+      <c r="C28">
+        <v>135.041872213896</v>
+      </c>
+      <c r="D28">
+        <v>12.0236295</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B28">
-        <v>135.041872213896</v>
-      </c>
-      <c r="C28">
-        <v>12.0236295</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="J28" t="s">
+        <v>171</v>
+      </c>
+      <c r="L28" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B29" s="4">
+        <f t="shared" si="0"/>
+        <v>136.06176521660498</v>
+      </c>
+      <c r="C29">
+        <v>137.05880021660499</v>
+      </c>
+      <c r="D29">
+        <v>4.7828369999999998</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B29">
-        <v>137.05880021660499</v>
-      </c>
-      <c r="C29">
-        <v>4.7828369999999998</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="J29" t="s">
+        <v>45</v>
+      </c>
+      <c r="L29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B30" s="4">
+        <f t="shared" si="0"/>
+        <v>137.04575460434199</v>
+      </c>
+      <c r="C30">
+        <v>138.042789604342</v>
+      </c>
+      <c r="D30">
+        <v>6.4389919000000004</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B30">
-        <v>138.042789604342</v>
-      </c>
-      <c r="C30">
-        <v>6.4389919000000004</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="J30" t="s">
+        <v>172</v>
+      </c>
+      <c r="L30" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B31" s="4">
+        <f t="shared" si="0"/>
+        <v>137.05875859480298</v>
+      </c>
+      <c r="C31">
+        <v>138.05579359480299</v>
+      </c>
+      <c r="D31">
+        <v>4.7753180499999903</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J31" t="s">
+        <v>173</v>
+      </c>
+      <c r="L31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>49</v>
       </c>
-      <c r="B31">
-        <v>138.05579359480299</v>
-      </c>
-      <c r="C31">
-        <v>4.7753180499999903</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B32" s="4">
+        <f t="shared" si="0"/>
+        <v>138.04278410002098</v>
+      </c>
+      <c r="C32">
+        <v>139.03981910002099</v>
+      </c>
+      <c r="D32">
+        <v>6.4391660499999999</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J32" t="s">
+        <v>197</v>
+      </c>
+      <c r="L32" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>50</v>
       </c>
-      <c r="B32">
-        <v>139.03981910002099</v>
-      </c>
-      <c r="C32">
-        <v>6.4391660499999999</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33">
+      <c r="B33" s="4">
+        <f t="shared" si="0"/>
+        <v>138.05577570171599</v>
+      </c>
+      <c r="C33">
         <v>139.052810701716</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>3.5511029999999999</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="J33" t="s">
+        <v>200</v>
+      </c>
+      <c r="L33" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>51</v>
       </c>
-      <c r="B34">
-        <v>139.052810701716</v>
+      <c r="B34" s="4">
+        <f t="shared" si="0"/>
+        <v>138.06205314334298</v>
       </c>
       <c r="C34">
-        <v>3.5511029999999999</v>
-      </c>
-      <c r="D34" s="1" t="s">
+        <v>139.05908814334299</v>
+      </c>
+      <c r="D34">
+        <v>4.7754720500000003</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J34" t="s">
+        <v>198</v>
+      </c>
+      <c r="L34" t="s">
+        <v>227</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="4">
+        <f t="shared" si="0"/>
+        <v>139.03980593729298</v>
+      </c>
+      <c r="C35">
+        <v>140.03684093729299</v>
+      </c>
+      <c r="D35">
+        <v>6.4360705999999999</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J35" t="s">
+        <v>204</v>
+      </c>
+      <c r="L35" t="s">
+        <v>227</v>
+      </c>
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>53</v>
       </c>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B36" s="4">
+        <f t="shared" si="0"/>
+        <v>139.05280744827999</v>
+      </c>
+      <c r="C36">
+        <v>140.04984244828</v>
+      </c>
+      <c r="D36">
+        <v>4.7784316999999996</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J36" t="s">
+        <v>174</v>
+      </c>
+      <c r="L36" t="s">
+        <v>227</v>
+      </c>
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>54</v>
       </c>
-      <c r="B35">
-        <v>139.05908814334299</v>
-      </c>
-      <c r="C35">
-        <v>4.7754720500000003</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="1" t="s">
+      <c r="B37" s="4">
+        <f t="shared" si="0"/>
+        <v>139.05908828354799</v>
+      </c>
+      <c r="C37">
+        <v>140.056123283548</v>
+      </c>
+      <c r="D37">
+        <v>4.7772800000000002</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J37" t="s">
+        <v>175</v>
+      </c>
+      <c r="L37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="4">
+        <f t="shared" si="0"/>
+        <v>140.03682449289698</v>
+      </c>
+      <c r="C38">
+        <v>141.03385949289699</v>
+      </c>
+      <c r="D38">
+        <v>6.4402112999999996</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J38" t="s">
+        <v>205</v>
+      </c>
+      <c r="L38" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="4">
+        <f t="shared" si="0"/>
+        <v>140.049844784887</v>
+      </c>
+      <c r="C39" s="2">
+        <v>141.04687978488701</v>
+      </c>
+      <c r="D39" s="2">
+        <v>4.7773270500000002</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L39" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="4">
+        <f t="shared" si="0"/>
+        <v>140.04986063626799</v>
+      </c>
+      <c r="C40">
+        <v>141.046895636268</v>
+      </c>
+      <c r="D40">
+        <v>3.5564003999999998</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H40" t="s">
+        <v>202</v>
+      </c>
+      <c r="J40" t="s">
+        <v>201</v>
+      </c>
+      <c r="L40" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="4">
+        <f t="shared" si="0"/>
+        <v>140.05605626140098</v>
+      </c>
+      <c r="C41">
+        <v>141.05309126140099</v>
+      </c>
+      <c r="D41">
+        <v>4.7770542000000003</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J41" t="s">
+        <v>230</v>
+      </c>
+      <c r="L41" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="4">
+        <f t="shared" si="0"/>
+        <v>141.040235062915</v>
+      </c>
+      <c r="C42">
+        <v>142.03727006291501</v>
+      </c>
+      <c r="D42">
+        <v>6.4162995</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J42" t="s">
+        <v>206</v>
+      </c>
+      <c r="L42" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="4">
+        <f t="shared" si="0"/>
+        <v>141.0532392961</v>
+      </c>
+      <c r="C43">
+        <v>142.05027429610001</v>
+      </c>
+      <c r="D43">
+        <v>4.7834344</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J43" t="s">
+        <v>177</v>
+      </c>
+      <c r="L43" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="4">
+        <f t="shared" si="0"/>
+        <v>141.05952812287998</v>
+      </c>
+      <c r="C44">
+        <v>142.05656312287999</v>
+      </c>
+      <c r="D44">
+        <v>4.7834726999999999</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J44" t="s">
+        <v>231</v>
+      </c>
+      <c r="L44" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="4">
+        <f t="shared" si="0"/>
+        <v>143.08149966015498</v>
+      </c>
+      <c r="C45">
+        <v>144.07853466015499</v>
+      </c>
+      <c r="D45">
+        <v>9.4669145500000003</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J45" t="s">
+        <v>64</v>
+      </c>
+      <c r="L45" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="4">
+        <f t="shared" si="0"/>
+        <v>144.07851523187298</v>
+      </c>
+      <c r="C46">
+        <v>145.075550231873</v>
+      </c>
+      <c r="D46">
+        <v>9.4656354500000006</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" t="s">
+        <v>178</v>
+      </c>
+      <c r="L46" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="4">
+        <f t="shared" si="0"/>
+        <v>147.07635093239099</v>
+      </c>
+      <c r="C47">
+        <v>148.07338593239101</v>
+      </c>
+      <c r="D47">
+        <v>11.0981895</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J47" t="s">
+        <v>179</v>
+      </c>
+      <c r="L47" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="4">
+        <f t="shared" si="0"/>
+        <v>148.06044062041099</v>
+      </c>
+      <c r="C48">
+        <v>149.057475620411</v>
+      </c>
+      <c r="D48">
+        <v>11.887081999999999</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J48" t="s">
+        <v>180</v>
+      </c>
+      <c r="L48" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="4">
+        <f t="shared" si="0"/>
+        <v>148.073437798302</v>
+      </c>
+      <c r="C49">
+        <v>149.07047279830201</v>
+      </c>
+      <c r="D49">
+        <v>11.103011</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>119</v>
+      </c>
+      <c r="J49" t="s">
+        <v>181</v>
+      </c>
+      <c r="L49" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="4">
+        <f t="shared" si="0"/>
+        <v>148.07969173528897</v>
+      </c>
+      <c r="C50">
+        <v>149.07672673528899</v>
+      </c>
+      <c r="D50">
+        <v>11.079245500000001</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>118</v>
+      </c>
+      <c r="J50" t="s">
+        <v>182</v>
+      </c>
+      <c r="L50" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="4">
+        <f t="shared" si="0"/>
+        <v>149.06378158550598</v>
+      </c>
+      <c r="C51">
+        <v>150.06081658550599</v>
+      </c>
+      <c r="D51">
+        <v>11.889847999999899</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>120</v>
+      </c>
+      <c r="J51" t="s">
+        <v>183</v>
+      </c>
+      <c r="L51" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="4">
+        <f t="shared" si="0"/>
+        <v>149.07680207525198</v>
+      </c>
+      <c r="C52">
+        <v>150.07383707525199</v>
+      </c>
+      <c r="D52">
+        <v>11.12044</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" t="s">
+        <v>121</v>
+      </c>
+      <c r="J52" t="s">
+        <v>184</v>
+      </c>
+      <c r="L52" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="4">
+        <f t="shared" si="0"/>
+        <v>150.05829245224098</v>
+      </c>
+      <c r="C53">
+        <v>151.05532745224099</v>
+      </c>
+      <c r="D53">
+        <v>7.0660806000000003</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J53" t="s">
+        <v>185</v>
+      </c>
+      <c r="L53" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="4">
+        <f t="shared" si="0"/>
+        <v>152.05663897364198</v>
+      </c>
+      <c r="C54">
+        <v>153.05367397364199</v>
+      </c>
+      <c r="D54">
+        <v>8.3894557499999998</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J54" t="s">
+        <v>77</v>
+      </c>
+      <c r="L54" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="4">
+        <f t="shared" si="0"/>
+        <v>153.05367655051899</v>
+      </c>
+      <c r="C55">
+        <v>154.050711550519</v>
+      </c>
+      <c r="D55">
+        <v>8.3819547500000002</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" t="s">
+        <v>186</v>
+      </c>
+      <c r="L55" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" s="4">
+        <f t="shared" si="0"/>
+        <v>154.05068435822</v>
+      </c>
+      <c r="C56">
+        <v>155.04771935822001</v>
+      </c>
+      <c r="D56">
+        <v>8.3801722000000005</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" t="s">
+        <v>187</v>
+      </c>
+      <c r="L56" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="4">
+        <f t="shared" si="0"/>
+        <v>155.047713419378</v>
+      </c>
+      <c r="C57">
+        <v>156.04474841937801</v>
+      </c>
+      <c r="D57">
+        <v>8.3801722000000005</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" t="s">
+        <v>188</v>
+      </c>
+      <c r="L57" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" s="4">
+        <f t="shared" si="0"/>
+        <v>156.04481711255698</v>
+      </c>
+      <c r="C58">
+        <v>157.041852112557</v>
+      </c>
+      <c r="D58">
+        <v>8.3793812499999998</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" t="s">
+        <v>189</v>
+      </c>
+      <c r="L58" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="4">
+        <f t="shared" si="0"/>
+        <v>161.06154545881898</v>
+      </c>
+      <c r="C59">
+        <v>162.05858045881899</v>
+      </c>
+      <c r="D59">
+        <v>8.4230620500000004</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" t="s">
+        <v>123</v>
+      </c>
+      <c r="H59" t="s">
+        <v>122</v>
+      </c>
+      <c r="J59" t="s">
+        <v>190</v>
+      </c>
+      <c r="L59" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" s="4">
+        <f t="shared" si="0"/>
+        <v>166.08621980944898</v>
+      </c>
+      <c r="C60">
+        <v>167.08325480944899</v>
+      </c>
+      <c r="D60">
+        <v>4.54878599999999</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J60" t="s">
+        <v>207</v>
+      </c>
+      <c r="L60" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" s="4">
+        <f t="shared" si="0"/>
+        <v>167.08956131187799</v>
+      </c>
+      <c r="C61">
+        <v>168.086596311878</v>
+      </c>
+      <c r="D61">
+        <v>4.5163101000000001</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" t="s">
+        <v>134</v>
+      </c>
+      <c r="J61" t="s">
+        <v>208</v>
+      </c>
+      <c r="L61" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" s="4">
+        <f t="shared" si="0"/>
+        <v>192.08664758557998</v>
+      </c>
+      <c r="C62">
+        <v>193.08368258557999</v>
+      </c>
+      <c r="D62">
+        <v>10.261577000000001</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L62" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63" s="4">
+        <f t="shared" si="0"/>
+        <v>228.097867078489</v>
+      </c>
+      <c r="C63">
+        <v>229.09490207848901</v>
+      </c>
+      <c r="D63">
+        <v>6.6836959</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G63" t="s">
+        <v>130</v>
+      </c>
+      <c r="H63" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36">
-        <v>140.03684093729299</v>
-      </c>
-      <c r="C36">
-        <v>6.4360705999999999</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37">
-        <v>140.04984244828</v>
-      </c>
-      <c r="C37">
-        <v>4.7784316999999996</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38">
-        <v>140.056123283548</v>
-      </c>
-      <c r="C38">
-        <v>4.7772800000000002</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39">
-        <v>141.03385949289699</v>
-      </c>
-      <c r="C39">
-        <v>6.4402112999999996</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="J63" t="s">
+        <v>130</v>
+      </c>
+      <c r="L63" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>88</v>
+      </c>
+      <c r="B64" s="4">
+        <f t="shared" si="0"/>
+        <v>231.17025598945798</v>
+      </c>
+      <c r="C64">
+        <v>232.167290989458</v>
+      </c>
+      <c r="D64">
+        <v>1.9324418999999999</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40">
-        <v>141.04687978488701</v>
-      </c>
-      <c r="C40">
-        <v>4.7773270500000002</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41">
-        <v>141.046895636268</v>
-      </c>
-      <c r="C41">
-        <v>3.5564003999999998</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>62</v>
-      </c>
-      <c r="B42">
-        <v>141.05309126140099</v>
-      </c>
-      <c r="C42">
-        <v>4.7770542000000003</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43">
-        <v>142.03727006291501</v>
-      </c>
-      <c r="C43">
-        <v>6.4162995</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44">
-        <v>142.05027429610001</v>
-      </c>
-      <c r="C44">
-        <v>4.7834344</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>65</v>
-      </c>
-      <c r="B45">
-        <v>142.05656312287999</v>
-      </c>
-      <c r="C45">
-        <v>4.7834726999999999</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>66</v>
-      </c>
-      <c r="B46">
-        <v>144.07853466015499</v>
-      </c>
-      <c r="C46">
-        <v>9.4669145500000003</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47">
-        <v>145.075550231873</v>
-      </c>
-      <c r="C47">
-        <v>9.4656354500000006</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="G64" t="s">
+        <v>128</v>
+      </c>
+      <c r="H64" t="s">
+        <v>129</v>
+      </c>
+      <c r="L64" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" s="4">
+        <f t="shared" si="0"/>
+        <v>236.14916549464198</v>
+      </c>
+      <c r="C65">
+        <v>237.14620049464199</v>
+      </c>
+      <c r="D65">
+        <v>10.025369</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G65" t="s">
+        <v>133</v>
+      </c>
+      <c r="H65" t="s">
+        <v>131</v>
+      </c>
+      <c r="J65" t="s">
+        <v>167</v>
+      </c>
+      <c r="L65" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66" s="4">
+        <f t="shared" si="0"/>
+        <v>237.15249957061599</v>
+      </c>
+      <c r="C66">
+        <v>238.149534570616</v>
+      </c>
+      <c r="D66">
+        <v>10.0458544999999</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" t="s">
+        <v>134</v>
+      </c>
+      <c r="L66" t="s">
+        <v>227</v>
+      </c>
+      <c r="M66" s="4"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67" s="4">
+        <f t="shared" ref="B67:B81" si="1">C67-0.997035</f>
+        <v>248.12581715043598</v>
+      </c>
+      <c r="C67">
+        <v>249.12285215043599</v>
+      </c>
+      <c r="D67">
+        <v>12.018497</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H67" t="s">
+        <v>136</v>
+      </c>
+      <c r="J67" t="s">
+        <v>167</v>
+      </c>
+      <c r="L67" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68" s="4">
+        <f t="shared" si="1"/>
+        <v>252.14413220364</v>
+      </c>
+      <c r="C68">
+        <v>253.14116720364001</v>
+      </c>
+      <c r="D68">
+        <v>10.70177</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G68" t="s">
+        <v>137</v>
+      </c>
+      <c r="H68" t="s">
+        <v>138</v>
+      </c>
+      <c r="J68" t="s">
+        <v>167</v>
+      </c>
+      <c r="L68" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>93</v>
+      </c>
+      <c r="B69" s="4">
+        <f t="shared" si="1"/>
+        <v>253.10598279529498</v>
+      </c>
+      <c r="C69">
+        <v>254.10301779529499</v>
+      </c>
+      <c r="D69">
+        <v>3.5762590999999899</v>
+      </c>
+      <c r="G69" t="s">
+        <v>209</v>
+      </c>
+      <c r="J69" t="s">
+        <v>211</v>
+      </c>
+      <c r="L69" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70" s="4">
+        <f t="shared" si="1"/>
+        <v>253.11228287217898</v>
+      </c>
+      <c r="C70">
+        <v>254.10931787217899</v>
+      </c>
+      <c r="D70">
+        <v>3.5719004999999999</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70" t="s">
+        <v>156</v>
+      </c>
+      <c r="J70" t="s">
+        <v>210</v>
+      </c>
+      <c r="L70" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>95</v>
+      </c>
+      <c r="B71" s="4">
+        <f t="shared" si="1"/>
+        <v>254.10300869200299</v>
+      </c>
+      <c r="C71">
+        <v>255.100043692003</v>
+      </c>
+      <c r="D71">
+        <v>3.57610299999999</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71" t="s">
+        <v>140</v>
+      </c>
+      <c r="J71" t="s">
+        <v>212</v>
+      </c>
+      <c r="L71" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72" s="4">
+        <f t="shared" si="1"/>
+        <v>258.12276165153901</v>
+      </c>
+      <c r="C72">
+        <v>259.11979665153899</v>
+      </c>
+      <c r="D72">
+        <v>3.5729256</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" t="s">
+        <v>141</v>
+      </c>
+      <c r="J72" t="s">
+        <v>213</v>
+      </c>
+      <c r="L72" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" s="4">
+        <f t="shared" si="1"/>
+        <v>259.11982193474699</v>
+      </c>
+      <c r="C73">
+        <v>260.11685693474698</v>
+      </c>
+      <c r="D73">
+        <v>3.5838371000000002</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>69</v>
-      </c>
-      <c r="B48">
-        <v>148.07338593239101</v>
-      </c>
-      <c r="C48">
-        <v>11.0981895</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49">
-        <v>149.057475620411</v>
-      </c>
-      <c r="C49">
-        <v>11.887081999999999</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50">
-        <v>149.07047279830201</v>
-      </c>
-      <c r="C50">
-        <v>11.103011</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F50" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>74</v>
-      </c>
-      <c r="B51">
-        <v>149.07672673528899</v>
-      </c>
-      <c r="C51">
-        <v>11.079245500000001</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F51" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>75</v>
-      </c>
-      <c r="B52">
-        <v>150.06081658550599</v>
-      </c>
-      <c r="C52">
-        <v>11.889847999999899</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>76</v>
-      </c>
-      <c r="B53">
-        <v>150.07383707525199</v>
-      </c>
-      <c r="C53">
-        <v>11.12044</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>77</v>
-      </c>
-      <c r="B54">
-        <v>151.05532745224099</v>
-      </c>
-      <c r="C54">
-        <v>7.0660806000000003</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>79</v>
-      </c>
-      <c r="B55">
-        <v>153.05367397364199</v>
-      </c>
-      <c r="C55">
-        <v>8.3894557499999998</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>81</v>
-      </c>
-      <c r="B56">
-        <v>154.050711550519</v>
-      </c>
-      <c r="C56">
-        <v>8.3819547500000002</v>
-      </c>
-      <c r="D56" s="1" t="s">
+      <c r="G73" t="s">
+        <v>142</v>
+      </c>
+      <c r="J73" t="s">
+        <v>214</v>
+      </c>
+      <c r="L73" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>98</v>
+      </c>
+      <c r="B74" s="4">
+        <f t="shared" si="1"/>
+        <v>268.10395144560204</v>
+      </c>
+      <c r="C74">
+        <v>269.10098644560202</v>
+      </c>
+      <c r="D74">
+        <v>4.5550920000000001</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J74" t="s">
+        <v>215</v>
+      </c>
+      <c r="L74" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75" s="4">
+        <f t="shared" si="1"/>
+        <v>269.10093557163503</v>
+      </c>
+      <c r="C75">
+        <v>270.09797057163502</v>
+      </c>
+      <c r="D75">
+        <v>4.5467537</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>82</v>
-      </c>
-      <c r="B57">
-        <v>155.04771935822001</v>
-      </c>
-      <c r="C57">
-        <v>8.3801722000000005</v>
-      </c>
-      <c r="D57" s="1" t="s">
+      <c r="J75" t="s">
+        <v>216</v>
+      </c>
+      <c r="L75" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76" s="4">
+        <f t="shared" si="1"/>
+        <v>270.09798866091404</v>
+      </c>
+      <c r="C76">
+        <v>271.09502366091402</v>
+      </c>
+      <c r="D76">
+        <v>4.5390311499999996</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>83</v>
-      </c>
-      <c r="B58">
-        <v>156.04474841937801</v>
-      </c>
-      <c r="C58">
-        <v>8.3801722000000005</v>
-      </c>
-      <c r="D58" s="1" t="s">
+      <c r="J76" t="s">
+        <v>217</v>
+      </c>
+      <c r="L76" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>102</v>
+      </c>
+      <c r="B77" s="4">
+        <f t="shared" si="1"/>
+        <v>271.09500308449401</v>
+      </c>
+      <c r="C77">
+        <v>272.09203808449399</v>
+      </c>
+      <c r="D77">
+        <v>4.5438566499999897</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>84</v>
-      </c>
-      <c r="B59">
-        <v>157.041852112557</v>
-      </c>
-      <c r="C59">
-        <v>8.3793812499999998</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="J77" t="s">
+        <v>218</v>
+      </c>
+      <c r="L77" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78" s="4">
+        <f t="shared" si="1"/>
+        <v>272.09205292461502</v>
+      </c>
+      <c r="C78">
+        <v>273.089087924615</v>
+      </c>
+      <c r="D78">
+        <v>4.5399398499999997</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>85</v>
-      </c>
-      <c r="B60">
-        <v>162.05858045881899</v>
-      </c>
-      <c r="C60">
-        <v>8.4230620500000004</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" t="s">
-        <v>133</v>
-      </c>
-      <c r="G60" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>86</v>
-      </c>
-      <c r="B61">
-        <v>167.08325480944899</v>
-      </c>
-      <c r="C61">
-        <v>4.54878599999999</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>88</v>
-      </c>
-      <c r="B62">
-        <v>168.086596311878</v>
-      </c>
-      <c r="C62">
-        <v>4.5163101000000001</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>89</v>
-      </c>
-      <c r="B63">
-        <v>193.08368258557999</v>
-      </c>
-      <c r="C63">
-        <v>10.261577000000001</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>90</v>
-      </c>
-      <c r="B64">
-        <v>229.09490207848901</v>
-      </c>
-      <c r="C64">
-        <v>6.6836959</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F64" t="s">
-        <v>141</v>
-      </c>
-      <c r="G64" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>91</v>
-      </c>
-      <c r="B65">
-        <v>232.167290989458</v>
-      </c>
-      <c r="C65">
-        <v>1.9324418999999999</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F65" t="s">
-        <v>139</v>
-      </c>
-      <c r="G65" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>92</v>
-      </c>
-      <c r="B66">
-        <v>237.14620049464199</v>
-      </c>
-      <c r="C66">
-        <v>10.025369</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="1" t="s">
+      <c r="J78" t="s">
+        <v>219</v>
+      </c>
+      <c r="L78" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>104</v>
+      </c>
+      <c r="B79" s="4">
+        <f t="shared" si="1"/>
+        <v>282.11820888070304</v>
+      </c>
+      <c r="C79">
+        <v>283.11524388070302</v>
+      </c>
+      <c r="D79">
+        <v>11.1145365</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G79" t="s">
         <v>143</v>
       </c>
-      <c r="F66" t="s">
-        <v>144</v>
-      </c>
-      <c r="G66" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>93</v>
-      </c>
-      <c r="B67">
-        <v>238.149534570616</v>
-      </c>
-      <c r="C67">
-        <v>10.0458544999999</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="J79" t="s">
+        <v>221</v>
+      </c>
+      <c r="L79" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80" s="4">
+        <f t="shared" si="1"/>
+        <v>333.12924658939204</v>
+      </c>
+      <c r="C80">
+        <v>334.12628158939202</v>
+      </c>
+      <c r="D80">
+        <v>11.251846</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" t="s">
+        <v>146</v>
+      </c>
+      <c r="J80" t="s">
+        <v>146</v>
+      </c>
+      <c r="L80" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>106</v>
+      </c>
+      <c r="B81" s="4">
+        <f t="shared" si="1"/>
+        <v>334.13225482891301</v>
+      </c>
+      <c r="C81">
+        <v>335.12928982891299</v>
+      </c>
+      <c r="D81">
+        <v>11.149948</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>94</v>
-      </c>
-      <c r="B68">
-        <v>249.12285215043599</v>
-      </c>
-      <c r="C68">
-        <v>12.018497</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G68" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>95</v>
-      </c>
-      <c r="B69">
-        <v>253.14116720364001</v>
-      </c>
-      <c r="C69">
-        <v>10.70177</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F69" t="s">
-        <v>148</v>
-      </c>
-      <c r="G69" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>96</v>
-      </c>
-      <c r="B70">
-        <v>254.10301779529499</v>
-      </c>
-      <c r="C70">
-        <v>3.5762590999999899</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F70" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>97</v>
-      </c>
-      <c r="B71">
-        <v>254.10931787217899</v>
-      </c>
-      <c r="C71">
-        <v>3.5719004999999999</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F71" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>98</v>
-      </c>
-      <c r="B72">
-        <v>255.100043692003</v>
-      </c>
-      <c r="C72">
-        <v>3.57610299999999</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>99</v>
-      </c>
-      <c r="B73">
-        <v>259.11979665153899</v>
-      </c>
-      <c r="C73">
-        <v>3.5729256</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>100</v>
-      </c>
-      <c r="B74">
-        <v>260.11685693474698</v>
-      </c>
-      <c r="C74">
-        <v>3.5838371000000002</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F74" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>101</v>
-      </c>
-      <c r="B75">
-        <v>269.10098644560202</v>
-      </c>
-      <c r="C75">
-        <v>4.5550920000000001</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>103</v>
-      </c>
-      <c r="B76">
-        <v>270.09797057163502</v>
-      </c>
-      <c r="C76">
-        <v>4.5467537</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>104</v>
-      </c>
-      <c r="B77">
-        <v>271.09502366091402</v>
-      </c>
-      <c r="C77">
-        <v>4.5390311499999996</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>105</v>
-      </c>
-      <c r="B78">
-        <v>272.09203808449399</v>
-      </c>
-      <c r="C78">
-        <v>4.5438566499999897</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>106</v>
-      </c>
-      <c r="B79">
-        <v>273.089087924615</v>
-      </c>
-      <c r="C79">
-        <v>4.5399398499999997</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>107</v>
-      </c>
-      <c r="B80">
-        <v>283.11524388070302</v>
-      </c>
-      <c r="C80">
-        <v>11.1145365</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F80" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>108</v>
-      </c>
-      <c r="B81">
-        <v>334.12628158939202</v>
-      </c>
-      <c r="C81">
-        <v>11.251846</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>109</v>
-      </c>
-      <c r="B82">
-        <v>335.12928982891299</v>
-      </c>
-      <c r="C82">
-        <v>11.149948</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F82" t="s">
-        <v>157</v>
+      <c r="J81" t="s">
+        <v>220</v>
+      </c>
+      <c r="L81" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K84" t="s">
+        <v>226</v>
+      </c>
+      <c r="L84">
+        <f>COUNTIF(L$2:L$81, K84)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K85" t="s">
+        <v>232</v>
+      </c>
+      <c r="L85">
+        <f t="shared" ref="L85:L88" si="2">COUNTIF(L$2:L$81, K85)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K86" t="s">
+        <v>227</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K87" t="s">
+        <v>225</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K88" t="s">
+        <v>229</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/untargeted/best_labeled_anno.xlsx
+++ b/untargeted/best_labeled_anno.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Documents\PARAGON\untargeted\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Will\PARAGON\untargeted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BDFC65-9723-423B-9A35-F6FD05A87700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="best_labeled_anno.xlsx" sheetId="1" r:id="rId1"/>
@@ -727,7 +726,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -1538,22 +1537,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="128" workbookViewId="0">
-      <selection activeCell="A68" sqref="A65:A68"/>
+    <sheetView tabSelected="1" zoomScale="128" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="11.28515625" style="4" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.21875" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1585,7 +1584,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1615,7 +1614,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1639,7 +1638,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1669,7 +1668,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1699,7 +1698,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1726,7 +1725,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1756,7 +1755,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1780,7 +1779,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1804,7 +1803,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1828,7 +1827,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1852,7 +1851,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1879,7 +1878,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1904,7 +1903,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1931,7 +1930,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1958,7 +1957,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1986,7 +1985,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -2013,7 +2012,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -2038,7 +2037,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2065,7 +2064,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -2092,7 +2091,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2117,7 +2116,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -2150,7 +2149,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -2174,7 +2173,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -2201,7 +2200,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -2228,7 +2227,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -2252,7 +2251,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -2276,7 +2275,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -2300,7 +2299,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -2324,7 +2323,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -2348,7 +2347,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -2375,7 +2374,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -2402,7 +2401,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -2427,7 +2426,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -2457,7 +2456,7 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -2485,7 +2484,7 @@
       </c>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -2513,7 +2512,7 @@
       </c>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -2540,7 +2539,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -2567,7 +2566,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -2597,7 +2596,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -2627,7 +2626,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -2654,7 +2653,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -2681,7 +2680,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -2708,7 +2707,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -2735,7 +2734,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -2759,7 +2758,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -2783,7 +2782,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>66</v>
       </c>
@@ -2807,7 +2806,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>68</v>
       </c>
@@ -2831,7 +2830,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -2858,7 +2857,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>71</v>
       </c>
@@ -2885,7 +2884,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>72</v>
       </c>
@@ -2912,7 +2911,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>73</v>
       </c>
@@ -2939,7 +2938,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>74</v>
       </c>
@@ -2963,7 +2962,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>76</v>
       </c>
@@ -2987,7 +2986,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>78</v>
       </c>
@@ -3011,7 +3010,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>79</v>
       </c>
@@ -3035,7 +3034,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>80</v>
       </c>
@@ -3059,7 +3058,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>81</v>
       </c>
@@ -3083,7 +3082,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>82</v>
       </c>
@@ -3113,7 +3112,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>83</v>
       </c>
@@ -3137,7 +3136,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>85</v>
       </c>
@@ -3164,7 +3163,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>86</v>
       </c>
@@ -3188,7 +3187,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>87</v>
       </c>
@@ -3221,7 +3220,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>88</v>
       </c>
@@ -3251,7 +3250,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>89</v>
       </c>
@@ -3284,7 +3283,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>90</v>
       </c>
@@ -3309,7 +3308,7 @@
       </c>
       <c r="M66" s="4"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>91</v>
       </c>
@@ -3339,7 +3338,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>92</v>
       </c>
@@ -3372,7 +3371,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>93</v>
       </c>
@@ -3396,7 +3395,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>94</v>
       </c>
@@ -3423,7 +3422,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>95</v>
       </c>
@@ -3450,7 +3449,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>96</v>
       </c>
@@ -3477,7 +3476,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>97</v>
       </c>
@@ -3504,7 +3503,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>98</v>
       </c>
@@ -3528,7 +3527,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>100</v>
       </c>
@@ -3552,7 +3551,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>101</v>
       </c>
@@ -3576,7 +3575,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>102</v>
       </c>
@@ -3600,7 +3599,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>103</v>
       </c>
@@ -3624,7 +3623,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>104</v>
       </c>
@@ -3654,7 +3653,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>105</v>
       </c>
@@ -3681,7 +3680,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>106</v>
       </c>
@@ -3708,7 +3707,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K84" t="s">
         <v>226</v>
       </c>
@@ -3717,7 +3716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K85" t="s">
         <v>232</v>
       </c>
@@ -3726,7 +3725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K86" t="s">
         <v>227</v>
       </c>
@@ -3735,7 +3734,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K87" t="s">
         <v>225</v>
       </c>
@@ -3744,7 +3743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K88" t="s">
         <v>229</v>
       </c>
